--- a/Stocks/HONAUT.xlsx
+++ b/Stocks/HONAUT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>11080.666666666666</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H104">_xll.TA_EMA(G2:G104,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J104">_xll.TA_EMA(D2:D104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K104">_xll.TA_EMA(E2:E104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N104">_xll.TA_RSI(F2:F104,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V104">_xll.TA_EMA(F2:F104,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W104">_xll.TA_EMA(F2:F104,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y104">_xll.TA_EMA(X2:X104,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>12371.271279026947</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I104" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>12176.705362319957</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L104" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M104" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>57.160524886783527</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O104" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P104" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q104" si="25">F67-E67</f>
         <v>149</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R104" si="26">D67-E67</f>
         <v>209.95000000000073</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S104" si="27">Q67/R67</f>
         <v>0.70969278399618707</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T104" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U104" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>12096.692315762548</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X104" si="30">V67-W67</f>
         <v>161.676385837829</v>
       </c>
       <c r="Y67">
         <v>142.06937671739902</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z104" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA104" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB104" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC104" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD104" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE104" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF104" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG104" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,2689 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>13099.95</v>
+      </c>
+      <c r="D83">
+        <v>13270</v>
+      </c>
+      <c r="E83">
+        <v>12970</v>
+      </c>
+      <c r="F83">
+        <v>13200</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>13146.666666666666</v>
+      </c>
+      <c r="H83">
+        <v>13002.206204548325</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>13089.785884892275</v>
+      </c>
+      <c r="K83">
+        <v>12688.208179457157</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>66.608701811553104</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>230</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>300</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>12826.875084074676</v>
+      </c>
+      <c r="W83">
+        <v>12597.830077118761</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>229.0450069559156</v>
+      </c>
+      <c r="Y83">
+        <v>208.20316869369557</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>13030</v>
+      </c>
+      <c r="D84">
+        <v>13200</v>
+      </c>
+      <c r="E84">
+        <v>13000</v>
+      </c>
+      <c r="F84">
+        <v>13144</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>13114.666666666666</v>
+      </c>
+      <c r="H84">
+        <v>13058.436435607495</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J84">
+        <v>13114.27791047177</v>
+      </c>
+      <c r="K84">
+        <v>12757.4952506889</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N84">
+        <v>62.889596469805831</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>144</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>200</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.72</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>12875.663532678573</v>
+      </c>
+      <c r="W84">
+        <v>12638.287108443297</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>237.37642423527541</v>
+      </c>
+      <c r="Y84">
+        <v>214.03781980201154</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>13144</v>
+      </c>
+      <c r="D85">
+        <v>13235</v>
+      </c>
+      <c r="E85">
+        <v>12830.05</v>
+      </c>
+      <c r="F85">
+        <v>13075</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>13046.683333333334</v>
+      </c>
+      <c r="H85">
+        <v>13052.559884470415</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>13141.105041478044</v>
+      </c>
+      <c r="K85">
+        <v>12773.618528313589</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>57.909598762122727</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>244.95000000000073</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>404.95000000000073</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.60488949252994273</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>12906.330681497253</v>
+      </c>
+      <c r="W85">
+        <v>12670.636211521571</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>235.6944699756823</v>
+      </c>
+      <c r="Y85">
+        <v>218.36914983674569</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>13180</v>
+      </c>
+      <c r="D86">
+        <v>13300</v>
+      </c>
+      <c r="E86">
+        <v>12961</v>
+      </c>
+      <c r="F86">
+        <v>13121</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>13127.333333333334</v>
+      </c>
+      <c r="H86">
+        <v>13089.946608901875</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>13176.4150322607</v>
+      </c>
+      <c r="K86">
+        <v>12815.258855355014</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>60.515149793286405</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>160</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>339</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.471976401179941</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>12939.356730497675</v>
+      </c>
+      <c r="W86">
+        <v>12703.996492149603</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>235.36023834807202</v>
+      </c>
+      <c r="Y86">
+        <v>221.76736753901096</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>13246.8</v>
+      </c>
+      <c r="D87">
+        <v>13370</v>
+      </c>
+      <c r="E87">
+        <v>13143.05</v>
+      </c>
+      <c r="F87">
+        <v>13305</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>13272.683333333334</v>
+      </c>
+      <c r="H87">
+        <v>13181.314971117605</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>13219.433913980545</v>
+      </c>
+      <c r="K87">
+        <v>12888.101331942789</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>69.847808839118827</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>161.95000000000073</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>226.95000000000073</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.71359330248953601</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>12995.609541190341</v>
+      </c>
+      <c r="W87">
+        <v>12748.515270508891</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>247.09427068144942</v>
+      </c>
+      <c r="Y87">
+        <v>226.83274816749866</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>13211.05</v>
+      </c>
+      <c r="D88">
+        <v>13495</v>
+      </c>
+      <c r="E88">
+        <v>13211.05</v>
+      </c>
+      <c r="F88">
+        <v>13402</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>13369.35</v>
+      </c>
+      <c r="H88">
+        <v>13275.332485558803</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>13280.670821984868</v>
+      </c>
+      <c r="K88">
+        <v>12959.867702622169</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N88">
+        <v>73.911234820334997</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>190.95000000000073</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>283.95000000000073</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.6724775488642375</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>13058.131150237981</v>
+      </c>
+      <c r="W88">
+        <v>12796.921546767491</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>261.20960347049004</v>
+      </c>
+      <c r="Y88">
+        <v>233.70811922809693</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>13497</v>
+      </c>
+      <c r="D89">
+        <v>13500</v>
+      </c>
+      <c r="E89">
+        <v>13365</v>
+      </c>
+      <c r="F89">
+        <v>13365</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>13410</v>
+      </c>
+      <c r="H89">
+        <v>13342.666242779402</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>13329.410639321564</v>
+      </c>
+      <c r="K89">
+        <v>13049.897102039464</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>69.448738804073912</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>135</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>13105.341742509061</v>
+      </c>
+      <c r="W89">
+        <v>12839.001432192121</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>266.3403103169403</v>
+      </c>
+      <c r="Y89">
+        <v>240.23455744586562</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>13365</v>
+      </c>
+      <c r="D90">
+        <v>13500</v>
+      </c>
+      <c r="E90">
+        <v>13300</v>
+      </c>
+      <c r="F90">
+        <v>13300</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>13366.666666666666</v>
+      </c>
+      <c r="H90">
+        <v>13354.666454723034</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J90">
+        <v>13367.319386138994</v>
+      </c>
+      <c r="K90">
+        <v>13105.475523808473</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>61.318876037092174</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>200</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>13135.289166738436</v>
+      </c>
+      <c r="W90">
+        <v>12873.149474251964</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>262.13969248647118</v>
+      </c>
+      <c r="Y90">
+        <v>244.61558445398674</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>13447.95</v>
+      </c>
+      <c r="D91">
+        <v>13451</v>
+      </c>
+      <c r="E91">
+        <v>13365.05</v>
+      </c>
+      <c r="F91">
+        <v>13445</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>13420.35</v>
+      </c>
+      <c r="H91">
+        <v>13387.508227361517</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>13385.915078108106</v>
+      </c>
+      <c r="K91">
+        <v>13163.158740739924</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>70.838063341642425</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>79.950000000000728</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>85.950000000000728</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.93019197207678939</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V91">
+        <v>13182.936987240215</v>
+      </c>
+      <c r="W91">
+        <v>12915.508772455523</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>267.42821478469159</v>
+      </c>
+      <c r="Y91">
+        <v>249.17811052012772</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD91">
+        <f t="shared" si="35"/>
+        <v>13374.85</v>
+      </c>
+      <c r="AE91">
+        <f t="shared" si="36"/>
+        <v>13397.900000000001</v>
+      </c>
+      <c r="AF91">
+        <f t="shared" si="37"/>
+        <v>13408.050000000001</v>
+      </c>
+      <c r="AG91">
+        <f t="shared" si="38"/>
+        <v>13418.150000000001</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>13499</v>
+      </c>
+      <c r="D92">
+        <v>13499</v>
+      </c>
+      <c r="E92">
+        <v>13378.3</v>
+      </c>
+      <c r="F92">
+        <v>13378.3</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>13418.533333333333</v>
+      </c>
+      <c r="H92">
+        <v>13403.020780347426</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>13411.04506075075</v>
+      </c>
+      <c r="K92">
+        <v>13210.967909464385</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>62.056782149208324</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>120.70000000000073</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>13212.992835357105</v>
+      </c>
+      <c r="W92">
+        <v>12949.789604125484</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>263.20323123162052</v>
+      </c>
+      <c r="Y92">
+        <v>251.98313466242627</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>13423</v>
+      </c>
+      <c r="D93">
+        <v>13692</v>
+      </c>
+      <c r="E93">
+        <v>13423</v>
+      </c>
+      <c r="F93">
+        <v>13504.05</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>13539.683333333334</v>
+      </c>
+      <c r="H93">
+        <v>13471.35205684038</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>13473.479491695029</v>
+      </c>
+      <c r="K93">
+        <v>13258.086151805634</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>70.635249349546868</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>81.049999999999272</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>269</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.301301115241633</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>13257.770860686782</v>
+      </c>
+      <c r="W93">
+        <v>12990.845929745819</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>266.92493094096244</v>
+      </c>
+      <c r="Y93">
+        <v>254.97149391813349</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>13580</v>
+      </c>
+      <c r="D94">
+        <v>14065</v>
+      </c>
+      <c r="E94">
+        <v>13580</v>
+      </c>
+      <c r="F94">
+        <v>13918</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>13854.333333333334</v>
+      </c>
+      <c r="H94">
+        <v>13662.842695086856</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>13604.928493540578</v>
+      </c>
+      <c r="K94">
+        <v>13329.622562515493</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>84.787508802870235</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>338</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>485</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.69690721649484533</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>13359.344574427278</v>
+      </c>
+      <c r="W94">
+        <v>13059.524009023908</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>299.82056540336998</v>
+      </c>
+      <c r="Y94">
+        <v>263.94130821518081</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>13922.1</v>
+      </c>
+      <c r="D95">
+        <v>14543</v>
+      </c>
+      <c r="E95">
+        <v>13922.1</v>
+      </c>
+      <c r="F95">
+        <v>14420.45</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>14295.183333333334</v>
+      </c>
+      <c r="H95">
+        <v>13979.013014210095</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>13813.388828309338</v>
+      </c>
+      <c r="K95">
+        <v>13461.284215289828</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N95">
+        <v>91.212903726123173</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>498.35000000000036</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>620.89999999999964</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.80262522145273096</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V95">
+        <v>13522.591562976928</v>
+      </c>
+      <c r="W95">
+        <v>13160.333341688804</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>362.25822128812433</v>
+      </c>
+      <c r="Y95">
+        <v>283.60469082976954</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD95">
+        <f t="shared" si="35"/>
+        <v>13992.900000000001</v>
+      </c>
+      <c r="AE95">
+        <f t="shared" si="36"/>
+        <v>14159.300000000001</v>
+      </c>
+      <c r="AF95">
+        <f t="shared" si="37"/>
+        <v>14232.550000000001</v>
+      </c>
+      <c r="AG95">
+        <f t="shared" si="38"/>
+        <v>14305.800000000001</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>14399.95</v>
+      </c>
+      <c r="D96">
+        <v>14432</v>
+      </c>
+      <c r="E96">
+        <v>13997.95</v>
+      </c>
+      <c r="F96">
+        <v>14000</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>14143.316666666666</v>
+      </c>
+      <c r="H96">
+        <v>14061.164840438381</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>13950.857977573929</v>
+      </c>
+      <c r="K96">
+        <v>13580.543278558756</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>63.262978947783374</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>2.0499999999992724</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>434.04999999999927</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>4.7229581845392834E-3</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>13596.039014826631</v>
+      </c>
+      <c r="W96">
+        <v>13222.530871934077</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>373.50814289255322</v>
+      </c>
+      <c r="Y96">
+        <v>301.58538124232626</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>14060</v>
+      </c>
+      <c r="D97">
+        <v>14516.7</v>
+      </c>
+      <c r="E97">
+        <v>13802.8</v>
+      </c>
+      <c r="F97">
+        <v>14419</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>14246.166666666666</v>
+      </c>
+      <c r="H97">
+        <v>14153.665753552523</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>14076.600649224167</v>
+      </c>
+      <c r="K97">
+        <v>13629.933661101255</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N97">
+        <v>73.411924868409571</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>616.20000000000073</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>713.90000000000146</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.86314609889340166</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V97">
+        <v>13722.648397160996</v>
+      </c>
+      <c r="W97">
+        <v>13311.158214753776</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>411.49018240722035</v>
+      </c>
+      <c r="Y97">
+        <v>323.56634147530508</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD97">
+        <f t="shared" si="35"/>
+        <v>13884.2</v>
+      </c>
+      <c r="AE97">
+        <f t="shared" si="36"/>
+        <v>14075.5</v>
+      </c>
+      <c r="AF97">
+        <f t="shared" si="37"/>
+        <v>14159.75</v>
+      </c>
+      <c r="AG97">
+        <f t="shared" si="38"/>
+        <v>14244</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>14695</v>
+      </c>
+      <c r="D98">
+        <v>17074.7</v>
+      </c>
+      <c r="E98">
+        <v>14649.6</v>
+      </c>
+      <c r="F98">
+        <v>16599</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>16107.766666666668</v>
+      </c>
+      <c r="H98">
+        <v>15130.716210109596</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>14742.844949396575</v>
+      </c>
+      <c r="K98">
+        <v>13856.526180856532</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>90.492968720645521</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>1949.3999999999996</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>2425.1000000000004</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.8038431404890517</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V98">
+        <v>14165.164028366997</v>
+      </c>
+      <c r="W98">
+        <v>13554.702050697941</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>610.46197766905607</v>
+      </c>
+      <c r="Y98">
+        <v>380.94546871405527</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD98">
+        <f t="shared" si="35"/>
+        <v>14926.050000000001</v>
+      </c>
+      <c r="AE98">
+        <f t="shared" si="36"/>
+        <v>15576</v>
+      </c>
+      <c r="AF98">
+        <f t="shared" si="37"/>
+        <v>15862.150000000001</v>
+      </c>
+      <c r="AG98">
+        <f t="shared" si="38"/>
+        <v>16148.300000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>16405</v>
+      </c>
+      <c r="D99">
+        <v>17789</v>
+      </c>
+      <c r="E99">
+        <v>16100.2</v>
+      </c>
+      <c r="F99">
+        <v>16980</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>16956.399999999998</v>
+      </c>
+      <c r="H99">
+        <v>16043.558105054797</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>15419.768293975114</v>
+      </c>
+      <c r="K99">
+        <v>14355.120362888414</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N99">
+        <v>91.663043316990937</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>879.79999999999927</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>1688.7999999999993</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.52096162955945025</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>14598.215716310535</v>
+      </c>
+      <c r="W99">
+        <v>13808.427824720315</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>789.78789159022017</v>
+      </c>
+      <c r="Y99">
+        <v>462.71395328928827</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>17200</v>
+      </c>
+      <c r="D100">
+        <v>17400</v>
+      </c>
+      <c r="E100">
+        <v>16757.150000000001</v>
+      </c>
+      <c r="F100">
+        <v>16757.150000000001</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>16971.433333333334</v>
+      </c>
+      <c r="H100">
+        <v>16507.495719194067</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J100">
+        <v>15859.819784202866</v>
+      </c>
+      <c r="K100">
+        <v>14888.904726690989</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N100">
+        <v>84.095753461441788</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>642.84999999999854</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>14930.359452262761</v>
+      </c>
+      <c r="W100">
+        <v>14026.851689555848</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>903.50776270691313</v>
+      </c>
+      <c r="Y100">
+        <v>550.87271517281329</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>16999</v>
+      </c>
+      <c r="D101">
+        <v>17000</v>
+      </c>
+      <c r="E101">
+        <v>16242</v>
+      </c>
+      <c r="F101">
+        <v>16550</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>16597.333333333332</v>
+      </c>
+      <c r="H101">
+        <v>16552.414526263699</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>16113.193165491119</v>
+      </c>
+      <c r="K101">
+        <v>15189.592565204102</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>76.735005645075674</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>308</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>758</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.40633245382585753</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>15179.534921145412</v>
+      </c>
+      <c r="W101">
+        <v>14213.751564403563</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>965.78335674184927</v>
+      </c>
+      <c r="Y101">
+        <v>633.85484348662044</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>16658.650000000001</v>
+      </c>
+      <c r="D102">
+        <v>16837.75</v>
+      </c>
+      <c r="E102">
+        <v>15800</v>
+      </c>
+      <c r="F102">
+        <v>15850</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>16162.583333333334</v>
+      </c>
+      <c r="H102">
+        <v>16357.498929798516</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>16274.20579538198</v>
+      </c>
+      <c r="K102">
+        <v>15325.238661825413</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N102">
+        <v>56.022470972748629</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>50</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>1037.75</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>4.8181161165984102E-2</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>15282.683394815349</v>
+      </c>
+      <c r="W102">
+        <v>14334.955152225521</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>947.72824258982837</v>
+      </c>
+      <c r="Y102">
+        <v>696.62952330726205</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>16165</v>
+      </c>
+      <c r="D103">
+        <v>16165</v>
+      </c>
+      <c r="E103">
+        <v>15250</v>
+      </c>
+      <c r="F103">
+        <v>15362</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>15592.333333333334</v>
+      </c>
+      <c r="H103">
+        <v>15974.916131565926</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>16249.937840852652</v>
+      </c>
+      <c r="K103">
+        <v>15308.518959197543</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N103">
+        <v>45.354299698341052</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>112</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>915</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.12240437158469945</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>15294.885949459142</v>
+      </c>
+      <c r="W103">
+        <v>14411.032548356963</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>883.8534011021784</v>
+      </c>
+      <c r="Y103">
+        <v>734.07429886624527</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>15310.35</v>
+      </c>
+      <c r="D104">
+        <v>16240.95</v>
+      </c>
+      <c r="E104">
+        <v>15221</v>
+      </c>
+      <c r="F104">
+        <v>15944.15</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>15802.033333333333</v>
+      </c>
+      <c r="H104">
+        <v>15888.474732449629</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J104">
+        <v>16247.940542885395</v>
+      </c>
+      <c r="K104">
+        <v>15289.070301598089</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N104">
+        <v>57.439623117226276</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>723.14999999999964</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>1019.9500000000007</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.70900534339918542</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>15394.772726465428</v>
+      </c>
+      <c r="W104">
+        <v>14524.596804034225</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>870.17592243120271</v>
+      </c>
+      <c r="Y104">
+        <v>761.29462357923671</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
